--- a/Assets/Data/Table/Convert/Area_Area.xlsx
+++ b/Assets/Data/Table/Convert/Area_Area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tempus157/Desktop/ProjectS/Assets/Data/Table/Convert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4775D57-0FE8-904E-BB36-A0750B2AB2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4532DE-EC75-441C-99F7-953C38F2338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="10" r:id="rId1"/>
@@ -56,7 +56,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tb.String_UI</t>
+    <t>Tb.String
+Ui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,26 +168,26 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -479,19 +480,19 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="75">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -505,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="32">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -519,40 +520,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" s="8"/>
     </row>
   </sheetData>
